--- a/destinationsByPercentage.xlsx
+++ b/destinationsByPercentage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Projects\MI\proyecto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9886A5-0109-481B-9AA1-E0FE1D34D0AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6943D3-A1DD-4040-AEDA-2262439140D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{B8D572BA-12B6-4A00-977E-3B29DD4E1B94}"/>
   </bookViews>
@@ -34,9 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="563">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>ASE</t>
   </si>
   <si>
@@ -913,15 +910,6 @@
     <t>PUB</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>airport</t>
-  </si>
-  <si>
     <t>Aspen</t>
   </si>
   <si>
@@ -1721,6 +1709,18 @@
   </si>
   <si>
     <t>Memorial</t>
+  </si>
+  <si>
+    <t>Airport Code</t>
+  </si>
+  <si>
+    <t>Weather Cancellations</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Airport</t>
   </si>
 </sst>
 </file>
@@ -1756,8 +1756,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -2074,4114 +2077,4117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42881E6E-413A-49EF-8793-91EC6DA67338}">
   <dimension ref="A1:D293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7890625" customWidth="1"/>
+    <col min="2" max="2" width="18.62890625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" t="s">
-        <v>294</v>
+        <v>559</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="D1" t="s">
-        <v>295</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>203</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>5.4628632938643701E-2</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3.8194444444444448E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3.6458333333333336E-2</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>31</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3.311965811965812E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
         <v>96</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2.2689671472465138E-2</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>59</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.2289384208537967E-2</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>2.197802197802198E-2</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
         <v>75</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2.0259319286871962E-2</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>90</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1.8967334035827187E-2</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.7412935323383085E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
         <v>1.7182130584192441E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1.5873015873015872E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
         <v>219</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1.3967727533643727E-2</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
         <v>181</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1.3900622072037478E-2</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1.3118062563067608E-2</v>
       </c>
       <c r="D16" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1.303370786516854E-2</v>
       </c>
       <c r="D17" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
         <v>204</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1.2954025908051815E-2</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
         <v>90</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1.2731645211486774E-2</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
         <v>73</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1.2530037761757639E-2</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1.2477718360071301E-2</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
         <v>52</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1.2458073790129372E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
         <v>356</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1.2255155082791146E-2</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
         <v>90</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1.2116316639741519E-2</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
         <v>97</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1.1695201350373764E-2</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
         <v>140</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1.152358218783439E-2</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
         <v>106</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1.1380717199914108E-2</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
         <v>259</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1.1280979136721983E-2</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
         <v>23</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1.1192214111922141E-2</v>
       </c>
       <c r="D29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
         <v>54</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1.1031664964249234E-2</v>
       </c>
       <c r="D30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
         <v>130</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1.0766937220473746E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
         <v>34</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1.0732323232323232E-2</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
         <v>55</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>1.0681685764226064E-2</v>
       </c>
       <c r="D33" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
         <v>15</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1.065340909090909E-2</v>
       </c>
       <c r="D34" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
         <v>357</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>1.0623419134057432E-2</v>
       </c>
       <c r="D35" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
         <v>219</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1.0609951068262197E-2</v>
       </c>
       <c r="D36" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
         <v>126</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>1.0562494760667281E-2</v>
       </c>
       <c r="D37" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
         <v>148</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1.0453453877666337E-2</v>
       </c>
       <c r="D38" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
         <v>3</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1.0344827586206896E-2</v>
       </c>
       <c r="D39" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
         <v>77</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1.0194624652455977E-2</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
         <v>75</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1.0041504886865711E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
         <v>104</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>9.9769762087490409E-3</v>
       </c>
       <c r="D42" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
         <v>52</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>9.8972211648267992E-3</v>
       </c>
       <c r="D43" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
         <v>77</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>9.8478066248880933E-3</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
         <v>88</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>9.6364432763907139E-3</v>
       </c>
       <c r="D45" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
         <v>53</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="D46" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
         <v>61</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>9.320091673032849E-3</v>
       </c>
       <c r="D47" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
         <v>196</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>9.2961487383798145E-3</v>
       </c>
       <c r="D48" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
         <v>46</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>9.2350933547480432E-3</v>
       </c>
       <c r="D49" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>9.1162790697674415E-3</v>
       </c>
       <c r="D50" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
         <v>61</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>8.9561004257818228E-3</v>
       </c>
       <c r="D51" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
         <v>65</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>8.950702285871661E-3</v>
       </c>
       <c r="D52" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
         <v>37</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>8.7161366313309781E-3</v>
       </c>
       <c r="D53" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
         <v>85</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>8.6347013409183264E-3</v>
       </c>
       <c r="D54" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
         <v>21</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>8.6277732128184053E-3</v>
       </c>
       <c r="D55" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
         <v>26</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>8.6035737921906028E-3</v>
       </c>
       <c r="D56" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
         <v>61</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>8.3998898375103274E-3</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
         <v>84</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>8.2774931020890823E-3</v>
       </c>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
         <v>656</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>8.1732326630285807E-3</v>
       </c>
       <c r="D59" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
         <v>11</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>8.0291970802919711E-3</v>
       </c>
       <c r="D60" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
         <v>30</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>8.0192461908580592E-3</v>
       </c>
       <c r="D61" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
         <v>130</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>7.9911482665355298E-3</v>
       </c>
       <c r="D62" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
         <v>85</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>7.972985648625832E-3</v>
       </c>
       <c r="D63" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
         <v>217</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>7.7805665112943706E-3</v>
       </c>
       <c r="D64" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
         <v>58</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>7.6085530630985174E-3</v>
       </c>
       <c r="D65" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
         <v>41</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>7.2106929300035172E-3</v>
       </c>
       <c r="D66" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
         <v>5</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>7.1839080459770114E-3</v>
       </c>
       <c r="D67" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
         <v>216</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>7.1485305798252583E-3</v>
       </c>
       <c r="D68" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
         <v>236</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>7.0204664445502139E-3</v>
       </c>
       <c r="D69" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
         <v>158</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>6.9426135864311452E-3</v>
       </c>
       <c r="D70" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
         <v>12</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>6.940427993059572E-3</v>
       </c>
       <c r="D71" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
         <v>476</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>6.8852790997063632E-3</v>
       </c>
       <c r="D72" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
         <v>148</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>6.8083540344097892E-3</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
         <v>83</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>6.530291109362707E-3</v>
       </c>
       <c r="D74" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
         <v>27</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>6.5170166545981175E-3</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
         <v>185</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>6.4853116455163709E-3</v>
       </c>
       <c r="D76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
         <v>410</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>6.4268359589309508E-3</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
         <v>47</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>6.239214124518784E-3</v>
       </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
         <v>167</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>6.2234478646493252E-3</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
         <v>398</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>6.2151568624389027E-3</v>
       </c>
       <c r="D80" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
         <v>53</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>6.0295790671217294E-3</v>
       </c>
       <c r="D81" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
         <v>73</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>6.0121890957008728E-3</v>
       </c>
       <c r="D82" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
         <v>72</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>5.9855349571867984E-3</v>
       </c>
       <c r="D83" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
         <v>55</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>5.9841148950059838E-3</v>
       </c>
       <c r="D84" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
         <v>142</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>5.9759279521925763E-3</v>
       </c>
       <c r="D85" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
         <v>154</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>5.9370060526620144E-3</v>
       </c>
       <c r="D86" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
         <v>78</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>5.8532192705988296E-3</v>
       </c>
       <c r="D87" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
         <v>42</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>5.7859209257473485E-3</v>
       </c>
       <c r="D88" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
         <v>169</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>5.7791608248127756E-3</v>
       </c>
       <c r="D89" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
         <v>2</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>5.763688760806916E-3</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
         <v>66</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>5.6940729876628418E-3</v>
       </c>
       <c r="D91" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
         <v>6197</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>5.6723787102272152E-3</v>
       </c>
       <c r="D92" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
         <v>244</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>5.6645385954730123E-3</v>
       </c>
       <c r="D93" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
         <v>159</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>5.6537353767379013E-3</v>
       </c>
       <c r="D94" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
         <v>95</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>5.6199716043539988E-3</v>
       </c>
       <c r="D95" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
         <v>18</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>5.6179775280898875E-3</v>
       </c>
       <c r="D96" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
         <v>218</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>5.5947645322725519E-3</v>
       </c>
       <c r="D97" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
         <v>338</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>5.5503555183342365E-3</v>
       </c>
       <c r="D98" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
         <v>101</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>5.5140033848337612E-3</v>
       </c>
       <c r="D99" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
         <v>337</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>5.4853831629663391E-3</v>
       </c>
       <c r="D100" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
         <v>309</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>5.4745495455592371E-3</v>
       </c>
       <c r="D101" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
         <v>61</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>5.4703614025647922E-3</v>
       </c>
       <c r="D102" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
         <v>111</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>5.4454474097331241E-3</v>
       </c>
       <c r="D103" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
         <v>121</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>5.3996162256236329E-3</v>
       </c>
       <c r="D104" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
         <v>50</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>5.3908355795148251E-3</v>
       </c>
       <c r="D105" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
         <v>234</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>5.2957950482053137E-3</v>
       </c>
       <c r="D106" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
         <v>19</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>5.212620027434842E-3</v>
       </c>
       <c r="D107" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
         <v>146</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>5.1855798259634166E-3</v>
       </c>
       <c r="D108" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
         <v>69</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>5.149253731343284E-3</v>
       </c>
       <c r="D109" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
         <v>5526</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>5.1140906802499483E-3</v>
       </c>
       <c r="D110" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
         <v>144</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>5.0003472463365515E-3</v>
       </c>
       <c r="D111" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
         <v>98</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>4.9708343900583315E-3</v>
       </c>
       <c r="D112" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
         <v>286</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>4.9445894780519011E-3</v>
       </c>
       <c r="D113" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
         <v>103</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>4.9379164868881536E-3</v>
       </c>
       <c r="D114" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
         <v>40</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>4.9230769230769232E-3</v>
       </c>
       <c r="D115" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
         <v>70</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>4.881790919868889E-3</v>
       </c>
       <c r="D116" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
         <v>96</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>4.8492195787240488E-3</v>
       </c>
       <c r="D117" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
         <v>66</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>4.7643109795712122E-3</v>
       </c>
       <c r="D118" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
         <v>26</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>4.6796256299496044E-3</v>
       </c>
       <c r="D119" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
         <v>334</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>4.665130246525595E-3</v>
       </c>
       <c r="D120" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
         <v>426</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>4.6243025553070931E-3</v>
       </c>
       <c r="D121" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
         <v>115</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>4.6090337060638855E-3</v>
       </c>
       <c r="D122" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
         <v>414</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>4.6034269956523191E-3</v>
       </c>
       <c r="D123" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
         <v>5</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>4.5998160073597054E-3</v>
       </c>
       <c r="D124" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
         <v>80</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>4.5662100456621002E-3</v>
       </c>
       <c r="D125" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
         <v>24</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>4.5662100456621002E-3</v>
       </c>
       <c r="D126" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
         <v>376</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>4.5396373119551831E-3</v>
       </c>
       <c r="D127" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
         <v>40</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>4.50755014649538E-3</v>
       </c>
       <c r="D128" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
         <v>405</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>4.4485940246045694E-3</v>
       </c>
       <c r="D129" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
         <v>219</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>4.4231701405719826E-3</v>
       </c>
       <c r="D130" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
         <v>306</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>4.3989534515971361E-3</v>
       </c>
       <c r="D131" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
         <v>73</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>4.366551022849623E-3</v>
       </c>
       <c r="D132" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
         <v>310</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>4.3572372304837943E-3</v>
       </c>
       <c r="D133" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
         <v>58</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>4.3199761656487409E-3</v>
       </c>
       <c r="D134" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
         <v>197</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>4.3165782900214736E-3</v>
       </c>
       <c r="D135" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
         <v>144</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>4.3139604553624929E-3</v>
       </c>
       <c r="D136" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
         <v>58</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>4.2662743655755789E-3</v>
       </c>
       <c r="D137" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
         <v>113</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>4.204181858769254E-3</v>
       </c>
       <c r="D138" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
         <v>246</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>4.17940876656473E-3</v>
       </c>
       <c r="D139" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
         <v>76</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>4.1609635915685738E-3</v>
       </c>
       <c r="D140" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
         <v>6</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>4.1436464088397788E-3</v>
       </c>
       <c r="D141" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
         <v>41</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>4.1293181589283912E-3</v>
       </c>
       <c r="D142" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
         <v>118</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>4.1265955586641022E-3</v>
       </c>
       <c r="D143" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
         <v>274</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>4.1172669762130163E-3</v>
       </c>
       <c r="D144" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
         <v>110</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>4.1169205434335113E-3</v>
       </c>
       <c r="D145" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
         <v>54</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>4.0528369858901228E-3</v>
       </c>
       <c r="D146" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
         <v>18</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>4.0513166779203242E-3</v>
       </c>
       <c r="D147" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
         <v>1771</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>3.9918315090971381E-3</v>
       </c>
       <c r="D148" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
         <v>603</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>3.9863288093239108E-3</v>
       </c>
       <c r="D149" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
         <v>77</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>3.9811798769453493E-3</v>
       </c>
       <c r="D150" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
         <v>4603</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>3.9434061674084291E-3</v>
       </c>
       <c r="D151" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
         <v>34</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>3.9242843951985225E-3</v>
       </c>
       <c r="D152" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
         <v>167</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>3.9131147925111883E-3</v>
       </c>
       <c r="D153" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
         <v>52</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>3.9115390401684973E-3</v>
       </c>
       <c r="D154" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
         <v>16</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>3.9091131199609089E-3</v>
       </c>
       <c r="D155" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
         <v>5157</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>3.855326211284137E-3</v>
       </c>
       <c r="D156" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
         <v>2966</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>3.8344589353494192E-3</v>
       </c>
       <c r="D157" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-      <c r="B158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
         <v>79</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>3.7936995774106798E-3</v>
       </c>
       <c r="D158" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-      <c r="B159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
         <v>588</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>3.6388165182466847E-3</v>
       </c>
       <c r="D159" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
         <v>3054</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>3.5520755915182853E-3</v>
       </c>
       <c r="D160" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-      <c r="B161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
         <v>86</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>3.4943724350900004E-3</v>
       </c>
       <c r="D161" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-      <c r="B162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
         <v>2317</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>3.493272021408918E-3</v>
       </c>
       <c r="D162" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-      <c r="B163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
         <v>29</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>3.4918723660445515E-3</v>
       </c>
       <c r="D163" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-      <c r="B164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
         <v>10941</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>3.4869345921695197E-3</v>
       </c>
       <c r="D164" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-      <c r="B165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
         <v>299</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>3.4834275062620144E-3</v>
       </c>
       <c r="D165" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-      <c r="B166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
         <v>11393</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>3.4411570599899421E-3</v>
       </c>
       <c r="D166" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-      <c r="B167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
         <v>1628</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>3.4296789416027639E-3</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-      <c r="B168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
         <v>410</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>3.3952201924510178E-3</v>
       </c>
       <c r="D168" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
         <v>26</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>3.3761849110505128E-3</v>
       </c>
       <c r="D169" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-      <c r="B170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
         <v>75</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>3.3727571165175158E-3</v>
       </c>
       <c r="D170" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-      <c r="B171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1">
         <v>134</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>3.3647206528562459E-3</v>
       </c>
       <c r="D171" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-      <c r="B172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
         <v>299</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>3.3646163887200956E-3</v>
       </c>
       <c r="D172" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-      <c r="B173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
         <v>64</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>3.3597564176597195E-3</v>
       </c>
       <c r="D173" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-      <c r="B174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1">
         <v>46</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>3.3576642335766422E-3</v>
       </c>
       <c r="D174" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-      <c r="B175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
         <v>73</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>3.3521605363456856E-3</v>
       </c>
       <c r="D175" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-      <c r="B176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1">
         <v>15</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>3.3252050543116827E-3</v>
       </c>
       <c r="D176" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
         <v>2195</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>3.3240854600413124E-3</v>
       </c>
       <c r="D177" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-      <c r="B178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
         <v>558</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>3.306960618721664E-3</v>
       </c>
       <c r="D178" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-      <c r="B179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1">
         <v>121</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>3.2975418324521721E-3</v>
       </c>
       <c r="D179" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-      <c r="B180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
         <v>310</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>3.2674916204650378E-3</v>
       </c>
       <c r="D180" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-      <c r="B181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1">
         <v>90</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>3.2358968827526698E-3</v>
       </c>
       <c r="D181" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-      <c r="B182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
         <v>1752</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>3.2203692028299545E-3</v>
       </c>
       <c r="D182" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-      <c r="B183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1">
         <v>208</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>3.2021183244300075E-3</v>
       </c>
       <c r="D183" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-      <c r="B184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
         <v>5000</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>3.161279635415942E-3</v>
       </c>
       <c r="D184" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-      <c r="B185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
         <v>285</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>3.1394926139305347E-3</v>
       </c>
       <c r="D185" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-      <c r="B186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1">
         <v>32</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>3.138177895459449E-3</v>
       </c>
       <c r="D186" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-      <c r="B187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1">
         <v>41</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>3.0859551407496611E-3</v>
       </c>
       <c r="D187" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1">
         <v>50</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>3.0852770578797977E-3</v>
       </c>
       <c r="D188" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-      <c r="B189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
         <v>97</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>3.0374197588852354E-3</v>
       </c>
       <c r="D189" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-      <c r="B190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
         <v>229</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>2.9655529655529655E-3</v>
       </c>
       <c r="D190" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-      <c r="B191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1">
         <v>101</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>2.9416047764671618E-3</v>
       </c>
       <c r="D191" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-      <c r="B192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1">
         <v>343</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>2.9240264611607447E-3</v>
       </c>
       <c r="D192" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-      <c r="B193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
         <v>35</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>2.840909090909091E-3</v>
       </c>
       <c r="D193" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-      <c r="B194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1">
         <v>1971</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>2.8332724800262197E-3</v>
       </c>
       <c r="D194" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-      <c r="B195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
         <v>87</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>2.8280726847186555E-3</v>
       </c>
       <c r="D195" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-      <c r="B196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1">
         <v>584</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>2.8248860855011756E-3</v>
       </c>
       <c r="D196" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-      <c r="B197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1">
         <v>137</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>2.779806833860888E-3</v>
       </c>
       <c r="D197" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-      <c r="B198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1">
         <v>36</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>2.7711492571780463E-3</v>
       </c>
       <c r="D198" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-      <c r="B199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
         <v>4173</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>2.7634938031648065E-3</v>
       </c>
       <c r="D199" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-      <c r="B200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
         <v>355</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>2.7558260491546212E-3</v>
       </c>
       <c r="D200" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1">
         <v>514</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>2.6940756542567969E-3</v>
       </c>
       <c r="D201" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-      <c r="B202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
         <v>7657</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>2.6706921790957735E-3</v>
       </c>
       <c r="D202" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-      <c r="B203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
         <v>656</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>2.6644462947543715E-3</v>
       </c>
       <c r="D203" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-      <c r="B204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
         <v>685</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>2.6353451725093101E-3</v>
       </c>
       <c r="D204" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-      <c r="B205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
         <v>74</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>2.6269080582179624E-3</v>
       </c>
       <c r="D205" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-      <c r="B206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
         <v>560</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>2.6113069591330463E-3</v>
       </c>
       <c r="D206" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-      <c r="B207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
         <v>147</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>2.6109196831373663E-3</v>
       </c>
       <c r="D207" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-      <c r="B208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
         <v>205</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>2.5753445308476022E-3</v>
       </c>
       <c r="D208" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-      <c r="B209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
         <v>508</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>2.5607420102832946E-3</v>
       </c>
       <c r="D209" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-      <c r="B210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
         <v>675</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>2.553181831936333E-3</v>
       </c>
       <c r="D210" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-      <c r="B211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
         <v>456</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>2.4914220774963393E-3</v>
       </c>
       <c r="D211" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-      <c r="B212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
         <v>34</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>2.4700326916091537E-3</v>
       </c>
       <c r="D212" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-      <c r="B213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
         <v>129</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>2.4082440353955866E-3</v>
       </c>
       <c r="D213" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-      <c r="B214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
         <v>2524</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>2.4053741624313722E-3</v>
       </c>
       <c r="D214" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-      <c r="B215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
         <v>158</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>2.3921996124031007E-3</v>
       </c>
       <c r="D215" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-      <c r="B216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
         <v>7</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>2.3387905111927833E-3</v>
       </c>
       <c r="D216" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-      <c r="B217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
         <v>424</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>2.3255558846436526E-3</v>
       </c>
       <c r="D217" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-      <c r="B218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
         <v>2325</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>2.3253720595295246E-3</v>
       </c>
       <c r="D218" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-      <c r="B219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
         <v>744</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>2.2606492074054491E-3</v>
       </c>
       <c r="D219" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-      <c r="B220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
         <v>76</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>2.2030901237788795E-3</v>
       </c>
       <c r="D220" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
         <v>818</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>2.1706076374607606E-3</v>
       </c>
       <c r="D221" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-      <c r="B222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
         <v>334</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>2.1637449631385962E-3</v>
       </c>
       <c r="D222" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-      <c r="B223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
         <v>1418</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>2.1591596027024517E-3</v>
       </c>
       <c r="D223" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-      <c r="B224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
         <v>63</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>2.1097046413502108E-3</v>
       </c>
       <c r="D224" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-      <c r="B225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
         <v>164</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>2.0856913939794738E-3</v>
       </c>
       <c r="D225" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-      <c r="B226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
         <v>7</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>2.0790020790020791E-3</v>
       </c>
       <c r="D226" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-      <c r="B227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
         <v>79</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>2.0630941188760055E-3</v>
       </c>
       <c r="D227" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-      <c r="B228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
         <v>314</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>2.0583685135170571E-3</v>
       </c>
       <c r="D228" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-      <c r="B229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
         <v>243</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>2.0214119937111627E-3</v>
       </c>
       <c r="D229" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-      <c r="B230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
         <v>2305</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>2.0037919916127615E-3</v>
       </c>
       <c r="D230" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-      <c r="B231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
         <v>55</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>1.8991056938641622E-3</v>
       </c>
       <c r="D231" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-      <c r="B232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
         <v>276</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>1.8853489261708291E-3</v>
       </c>
       <c r="D232" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-      <c r="B233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
         <v>1240</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>1.8543608885379561E-3</v>
       </c>
       <c r="D233" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-      <c r="B234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
         <v>53</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>1.8485577761501169E-3</v>
       </c>
       <c r="D234" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-      <c r="B235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
         <v>1682</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>1.8405545737562306E-3</v>
       </c>
       <c r="D235" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-      <c r="B236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1">
         <v>15</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>1.8335166850018336E-3</v>
       </c>
       <c r="D236" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-      <c r="B237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
         <v>82</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>1.8264433357091947E-3</v>
       </c>
       <c r="D237" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-      <c r="B238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
         <v>1018</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>1.787457596168028E-3</v>
       </c>
       <c r="D238" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-      <c r="B239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
         <v>371</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>1.7538220083389274E-3</v>
       </c>
       <c r="D239" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-      <c r="B240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
         <v>966</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>1.7382197822366893E-3</v>
       </c>
       <c r="D240" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-      <c r="B241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
         <v>13</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>1.7335644752633685E-3</v>
       </c>
       <c r="D241" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-      <c r="B242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
         <v>125</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>1.731805649842752E-3</v>
       </c>
       <c r="D242" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-      <c r="B243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
         <v>376</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>1.6950986403144949E-3</v>
       </c>
       <c r="D243" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-      <c r="B244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
         <v>348</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>1.6849036506245763E-3</v>
       </c>
       <c r="D244" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-      <c r="B245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
         <v>42</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>1.6842442956249749E-3</v>
       </c>
       <c r="D245" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-      <c r="B246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
         <v>29</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>1.6489452436458747E-3</v>
       </c>
       <c r="D246" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-      <c r="B247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
         <v>303</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>1.5738379310523938E-3</v>
       </c>
       <c r="D247" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-      <c r="B248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
         <v>729</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>1.5580285488962361E-3</v>
       </c>
       <c r="D248" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-      <c r="B249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
         <v>213</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>1.5490796430571415E-3</v>
       </c>
       <c r="D249" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-      <c r="B250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
         <v>855</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>1.5436473045751539E-3</v>
       </c>
       <c r="D250" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-      <c r="B251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
         <v>363</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>1.51971230129657E-3</v>
       </c>
       <c r="D251" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-      <c r="B252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
         <v>765</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>1.512183454538626E-3</v>
       </c>
       <c r="D252" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-      <c r="B253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
         <v>201</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>1.4870823592080733E-3</v>
       </c>
       <c r="D253" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-      <c r="B254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
         <v>410</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>1.4826654708909373E-3</v>
       </c>
       <c r="D254" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-      <c r="B255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
         <v>16</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>1.4715349949415985E-3</v>
       </c>
       <c r="D255" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-      <c r="B256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
         <v>545</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>1.4577220485140596E-3</v>
       </c>
       <c r="D256" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-      <c r="B257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
         <v>1644</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>1.3849470409393377E-3</v>
       </c>
       <c r="D257" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-      <c r="B258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1">
         <v>2017</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>1.3841566560641777E-3</v>
       </c>
       <c r="D258" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-      <c r="B259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
         <v>10</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>1.3833171946327292E-3</v>
       </c>
       <c r="D259" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-      <c r="B260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
         <v>46</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>1.3266041816870945E-3</v>
       </c>
       <c r="D260" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-      <c r="B261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
         <v>756</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>1.2896688314679196E-3</v>
       </c>
       <c r="D261" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-      <c r="B262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
         <v>12</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>1.2662234884457107E-3</v>
       </c>
       <c r="D262" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-      <c r="B263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
         <v>468</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>1.2106600166595096E-3</v>
       </c>
       <c r="D263" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-      <c r="B264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
         <v>1529</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>1.1905540553588171E-3</v>
       </c>
       <c r="D264" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-      <c r="B265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
         <v>1619</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>1.1522016374215735E-3</v>
       </c>
       <c r="D265" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-      <c r="B266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
         <v>2366</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>1.1237486659640466E-3</v>
       </c>
       <c r="D266" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-      <c r="B267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
         <v>8</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>1.1029918654349923E-3</v>
       </c>
       <c r="D267" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-      <c r="B268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
         <v>1</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>1.0834236186348862E-3</v>
       </c>
       <c r="D268" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
         <v>437</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>1.0567808086670537E-3</v>
       </c>
       <c r="D269" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
-        <v>269</v>
-      </c>
-      <c r="B270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
         <v>874</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>1.0278592185682649E-3</v>
       </c>
       <c r="D270" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
-        <v>270</v>
-      </c>
-      <c r="B271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
         <v>378</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>1.0269199735934865E-3</v>
       </c>
       <c r="D271" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
-        <v>271</v>
-      </c>
-      <c r="B272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
         <v>789</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>1.007382363530971E-3</v>
       </c>
       <c r="D272" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>272</v>
-      </c>
-      <c r="B273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
         <v>381</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>8.8874789184801249E-4</v>
       </c>
       <c r="D273" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
-        <v>273</v>
-      </c>
-      <c r="B274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
         <v>47</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>8.8737845747191547E-4</v>
       </c>
       <c r="D274" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
-        <v>274</v>
-      </c>
-      <c r="B275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
         <v>171</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>8.870306777744348E-4</v>
       </c>
       <c r="D275" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
-        <v>275</v>
-      </c>
-      <c r="B276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
         <v>892</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>8.6143873789567519E-4</v>
       </c>
       <c r="D276" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
-        <v>276</v>
-      </c>
-      <c r="B277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
         <v>355</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>8.2135998704333543E-4</v>
       </c>
       <c r="D277" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
-        <v>277</v>
-      </c>
-      <c r="B278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
         <v>1030</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>8.0103154197794127E-4</v>
       </c>
       <c r="D278" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
-        <v>278</v>
-      </c>
-      <c r="B279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
         <v>51</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>7.8695202678722982E-4</v>
       </c>
       <c r="D279" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
-        <v>279</v>
-      </c>
-      <c r="B280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
         <v>159</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>7.0022151661815028E-4</v>
       </c>
       <c r="D280" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
-        <v>280</v>
-      </c>
-      <c r="B281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
         <v>412</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>6.8423080500086358E-4</v>
       </c>
       <c r="D281" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
-        <v>281</v>
-      </c>
-      <c r="B282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
         <v>1213</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>6.766937846261643E-4</v>
       </c>
       <c r="D282" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
-        <v>282</v>
-      </c>
-      <c r="B283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
         <v>877</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>6.1595037561033167E-4</v>
       </c>
       <c r="D283" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
-        <v>283</v>
-      </c>
-      <c r="B284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
         <v>371</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>5.8427221100573561E-4</v>
       </c>
       <c r="D284" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
-        <v>284</v>
-      </c>
-      <c r="B285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
         <v>2</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>5.654509471303364E-4</v>
       </c>
       <c r="D285" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
-        <v>285</v>
-      </c>
-      <c r="B286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
         <v>156</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>5.583053285948958E-4</v>
       </c>
       <c r="D286" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
-        <v>286</v>
-      </c>
-      <c r="B287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
         <v>194</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>5.4576246392060005E-4</v>
       </c>
       <c r="D287" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-      <c r="B288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
         <v>26</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>2.8347452545274152E-4</v>
       </c>
       <c r="D288" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
-        <v>288</v>
-      </c>
-      <c r="B289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
         <v>5</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>1.1588022619820154E-4</v>
       </c>
       <c r="D289" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-      <c r="B290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
         <v>26</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>1.0507980002505749E-4</v>
       </c>
       <c r="D290" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-      <c r="B291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
         <v>1</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>2.3424140919631773E-5</v>
       </c>
       <c r="D291" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-      <c r="B292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
         <v>0</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
-        <v>292</v>
-      </c>
-      <c r="B293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
         <v>0</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>0</v>
       </c>
       <c r="D293" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
